--- a/data/trans_dic/P25_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica</t>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 15,51</t>
+          <t>0,0; 17,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 16,16</t>
+          <t>1,44; 16,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,55</t>
+          <t>0,0; 12,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,5</t>
+          <t>0,0; 17,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 10,58</t>
+          <t>0,0; 11,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,34</t>
+          <t>1,44; 14,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,26</t>
+          <t>0,0; 11,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 9,34</t>
+          <t>1,04; 10,45</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 11,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 8,46</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,33</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,73</t>
+          <t>0,5; 4,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,29</t>
+          <t>0,49; 4,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,99</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,17</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,84</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,56</t>
+          <t>0,0; 2,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 3,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,78</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,52</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,23</t>
+          <t>0,96; 7,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,23</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,15</t>
+          <t>0,48; 4,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,87</t>
+          <t>0,49; 4,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,43</t>
+          <t>0,47; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,62</t>
+          <t>1,08; 12,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,61</t>
+          <t>0,62; 3,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 4,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 7,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 4,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 5,09</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 3,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 4,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 2,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 3,72</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 3,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 5,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 2,61</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 3,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 2,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8105</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6073</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10343</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6497</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11276</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12571</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8448</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10343</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23152</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1523; 17064</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14570</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 30463</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16248</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1659; 16822</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13842</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2785; 28100</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4915; 25962</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2075; 19848</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2416; 33127</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5599</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6214</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6495</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5738</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5599</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10390</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10249</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17920</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1880; 15856</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1958; 18423</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18199</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15174</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19912</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4102; 22827</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3797; 22222</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18032</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8653</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3594</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5858</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5318</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17451</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12228</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14511</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8913</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20847</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15169</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2701; 19983</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12396</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16157</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2059; 19913</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1678; 16471</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1547; 15134</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4332; 50675</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4740; 27090</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5967; 30358</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3342; 19827</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6225; 57065</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18871</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20940</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14392</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19477</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10232</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16532</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13217</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17451</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29103</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>37472</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>27609</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36928</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8246; 38143</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10890; 38742</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6039; 27679</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7435; 42445</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2628; 24086</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7672; 31327</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5256; 28321</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4570; 55923</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14729; 50212</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21515; 57018</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15529; 45756</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17264; 73247</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
